--- a/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Models to Compare Fractions 3.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset1_WithDialogActs/Video Mosaic Grade 4 Models to Compare Fractions 3.xlsx_with_dialog_acts.xlsx
@@ -1421,12 +1421,12 @@
       </c>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -1459,12 +1459,12 @@
       </c>
       <c r="I27" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J27" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2067,12 +2067,12 @@
       </c>
       <c r="I43" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J43" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2105,12 +2105,12 @@
       </c>
       <c r="I44" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J44" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2599,12 +2599,12 @@
       </c>
       <c r="I57" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J57" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
